--- a/Result/Orbit/Manufacturing/GBR.xlsx
+++ b/Result/Orbit/Manufacturing/GBR.xlsx
@@ -463,7 +463,7 @@
         <v>1990</v>
       </c>
       <c r="B2" t="n">
-        <v>16.66798755183352</v>
+        <v>16.7010672819565</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1991</v>
       </c>
       <c r="B3" t="n">
-        <v>16.26393514474525</v>
+        <v>16.19134696908234</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1992</v>
       </c>
       <c r="B4" t="n">
-        <v>16.04603255128911</v>
+        <v>16.00056322912099</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>1993</v>
       </c>
       <c r="B5" t="n">
-        <v>15.68185759056369</v>
+        <v>15.92852498253898</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>1994</v>
       </c>
       <c r="B6" t="n">
-        <v>16.40380812564748</v>
+        <v>15.55371264425624</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>1995</v>
       </c>
       <c r="B7" t="n">
-        <v>15.48202825036215</v>
+        <v>16.25616718649376</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>1996</v>
       </c>
       <c r="B8" t="n">
-        <v>15.26167400687671</v>
+        <v>15.58559791711167</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>1997</v>
       </c>
       <c r="B9" t="n">
-        <v>15.05881364917567</v>
+        <v>15.0921034045325</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>1998</v>
       </c>
       <c r="B10" t="n">
-        <v>14.44569766346996</v>
+        <v>14.76371134911073</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>1999</v>
       </c>
       <c r="B11" t="n">
-        <v>13.84905515513882</v>
+        <v>14.28880315968804</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>2000</v>
       </c>
       <c r="B12" t="n">
-        <v>13.34010013654984</v>
+        <v>13.59076521334876</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>2001</v>
       </c>
       <c r="B13" t="n">
-        <v>12.45044977202736</v>
+        <v>13.0212993944779</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2002</v>
       </c>
       <c r="B14" t="n">
-        <v>12.14522622183988</v>
+        <v>12.07568777223207</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>2003</v>
       </c>
       <c r="B15" t="n">
-        <v>11.60670492154575</v>
+        <v>11.64174651750066</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>2004</v>
       </c>
       <c r="B16" t="n">
-        <v>10.98015943513545</v>
+        <v>11.24865365637022</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>2005</v>
       </c>
       <c r="B17" t="n">
-        <v>10.51679841332442</v>
+        <v>10.65170610672092</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>2006</v>
       </c>
       <c r="B18" t="n">
-        <v>10.19548703141146</v>
+        <v>10.18228955706375</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>2007</v>
       </c>
       <c r="B19" t="n">
-        <v>9.645919083782617</v>
+        <v>9.929174754722398</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>2008</v>
       </c>
       <c r="B20" t="n">
-        <v>9.506477552490942</v>
+        <v>9.366204551429757</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>2009</v>
       </c>
       <c r="B21" t="n">
-        <v>9.106812577065352</v>
+        <v>9.191777833447729</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -663,7 +663,7 @@
         <v>2010</v>
       </c>
       <c r="B22" t="n">
-        <v>9.497486346254641</v>
+        <v>8.965192155705379</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -673,7 +673,7 @@
         <v>2011</v>
       </c>
       <c r="B23" t="n">
-        <v>9.338613927807517</v>
+        <v>9.351769151066929</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -683,7 +683,7 @@
         <v>2012</v>
       </c>
       <c r="B24" t="n">
-        <v>9.294886876908018</v>
+        <v>9.374888828097724</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -693,7 +693,7 @@
         <v>2013</v>
       </c>
       <c r="B25" t="n">
-        <v>9.505703634097443</v>
+        <v>9.199093672153655</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -703,7 +703,7 @@
         <v>2014</v>
       </c>
       <c r="B26" t="n">
-        <v>9.326007029243744</v>
+        <v>9.380000516779493</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -713,7 +713,7 @@
         <v>2015</v>
       </c>
       <c r="B27" t="n">
-        <v>9.213357502950581</v>
+        <v>9.406112050693498</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -723,7 +723,7 @@
         <v>2016</v>
       </c>
       <c r="B28" t="n">
-        <v>8.995169187528946</v>
+        <v>9.230297312285062</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -774,50 +774,70 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>8.995169188531506</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>8.92213315996031</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8.373377951459561</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.551706397028926</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>8.995169188531506</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>8.810792577081799</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7.953714812469005</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.474574520670361</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>8.995169188531506</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>8.760883370487132</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.503492718709204</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.772986206014661</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>8.995169188531506</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>8.707784093144539</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.146452559272314</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.06758445769857</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>8.995169188531506</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>8.650690050899225</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.836911773687008</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.25578720365617</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -865,7 +885,7 @@
         <v>1990</v>
       </c>
       <c r="B2" t="n">
-        <v>16.66798755183352</v>
+        <v>16.66943320170187</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -875,7 +895,7 @@
         <v>1991</v>
       </c>
       <c r="B3" t="n">
-        <v>16.26393514474525</v>
+        <v>16.17795346173706</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -885,7 +905,7 @@
         <v>1992</v>
       </c>
       <c r="B4" t="n">
-        <v>16.04603255128911</v>
+        <v>15.97579970414349</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -895,7 +915,7 @@
         <v>1993</v>
       </c>
       <c r="B5" t="n">
-        <v>15.68185759056369</v>
+        <v>15.89092512542089</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -905,7 +925,7 @@
         <v>1994</v>
       </c>
       <c r="B6" t="n">
-        <v>16.40380812564748</v>
+        <v>15.525785322045</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -915,7 +935,7 @@
         <v>1995</v>
       </c>
       <c r="B7" t="n">
-        <v>15.48202825036215</v>
+        <v>16.24507462181904</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -925,7 +945,7 @@
         <v>1996</v>
       </c>
       <c r="B8" t="n">
-        <v>15.26167400687671</v>
+        <v>15.63566330191608</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -935,7 +955,7 @@
         <v>1997</v>
       </c>
       <c r="B9" t="n">
-        <v>15.05881364917567</v>
+        <v>15.00813585065007</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -945,7 +965,7 @@
         <v>1998</v>
       </c>
       <c r="B10" t="n">
-        <v>14.44569766346996</v>
+        <v>14.80912945048916</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -955,7 +975,7 @@
         <v>1999</v>
       </c>
       <c r="B11" t="n">
-        <v>13.84905515513882</v>
+        <v>14.24872890778415</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -965,7 +985,7 @@
         <v>2000</v>
       </c>
       <c r="B12" t="n">
-        <v>13.34010013654984</v>
+        <v>13.53222500334002</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -975,7 +995,7 @@
         <v>2001</v>
       </c>
       <c r="B13" t="n">
-        <v>12.45044977202736</v>
+        <v>12.9221007423676</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -985,7 +1005,7 @@
         <v>2002</v>
       </c>
       <c r="B14" t="n">
-        <v>12.14522622183988</v>
+        <v>12.11084964960092</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -995,7 +1015,7 @@
         <v>2003</v>
       </c>
       <c r="B15" t="n">
-        <v>11.60670492154575</v>
+        <v>11.71131380097361</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -1005,7 +1025,7 @@
         <v>2004</v>
       </c>
       <c r="B16" t="n">
-        <v>10.98015943513545</v>
+        <v>11.28291242149775</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1015,7 +1035,7 @@
         <v>2005</v>
       </c>
       <c r="B17" t="n">
-        <v>10.51679841332442</v>
+        <v>10.67936219093114</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -1025,7 +1045,7 @@
         <v>2006</v>
       </c>
       <c r="B18" t="n">
-        <v>10.19548703141146</v>
+        <v>10.15189125100715</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1035,7 +1055,7 @@
         <v>2007</v>
       </c>
       <c r="B19" t="n">
-        <v>9.645919083782617</v>
+        <v>9.915789939276969</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -1045,7 +1065,7 @@
         <v>2008</v>
       </c>
       <c r="B20" t="n">
-        <v>9.506477552490942</v>
+        <v>9.368600488623674</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1055,7 +1075,7 @@
         <v>2009</v>
       </c>
       <c r="B21" t="n">
-        <v>9.106812577065352</v>
+        <v>9.233564120141573</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1065,7 +1085,7 @@
         <v>2010</v>
       </c>
       <c r="B22" t="n">
-        <v>9.497486346254641</v>
+        <v>8.984023014822029</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1075,7 +1095,7 @@
         <v>2011</v>
       </c>
       <c r="B23" t="n">
-        <v>9.338613927807517</v>
+        <v>9.356669274904377</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1085,7 +1105,7 @@
         <v>2012</v>
       </c>
       <c r="B24" t="n">
-        <v>9.294886876908018</v>
+        <v>9.282580630357071</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1095,7 +1115,7 @@
         <v>2013</v>
       </c>
       <c r="B25" t="n">
-        <v>9.505703634097443</v>
+        <v>9.297392448769068</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1105,7 +1125,7 @@
         <v>2014</v>
       </c>
       <c r="B26" t="n">
-        <v>9.326007029243744</v>
+        <v>9.51288374290575</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1115,7 +1135,7 @@
         <v>2015</v>
       </c>
       <c r="B27" t="n">
-        <v>9.213357502950581</v>
+        <v>9.42955375489427</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -1125,7 +1145,7 @@
         <v>2016</v>
       </c>
       <c r="B28" t="n">
-        <v>8.995169187528946</v>
+        <v>9.22071026116746</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -1135,7 +1155,7 @@
         <v>2017</v>
       </c>
       <c r="B29" t="n">
-        <v>8.947601570326869</v>
+        <v>8.98617642031774</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -1145,7 +1165,7 @@
         <v>2018</v>
       </c>
       <c r="B30" t="n">
-        <v>8.846981668337641</v>
+        <v>8.877462798419511</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -1155,7 +1175,7 @@
         <v>2019</v>
       </c>
       <c r="B31" t="n">
-        <v>8.879728176020482</v>
+        <v>8.777436924042139</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -1165,7 +1185,7 @@
         <v>2020</v>
       </c>
       <c r="B32" t="n">
-        <v>8.697854008196687</v>
+        <v>8.764520755345014</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -1175,7 +1195,7 @@
         <v>2021</v>
       </c>
       <c r="B33" t="n">
-        <v>8.76690832410466</v>
+        <v>8.691817451196002</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -1226,50 +1246,70 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>8.766908323832057</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>8.713752526242587</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8.292681213925796</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.240284441949267</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>8.766908323832057</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>8.719935588055282</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8.06865743838776</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.414110046406844</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>8.766908323832057</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>8.669151626734031</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.759217486050361</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.724923338316321</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>8.766908323832057</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>8.740482367662835</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.36686716163793</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.02220691003655</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>8.766908323832057</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>8.773785428142958</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.222485223830877</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.20748032150886</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
